--- a/out/bed_susp_2007_2023_stat2.xlsx
+++ b/out/bed_susp_2007_2023_stat2.xlsx
@@ -410,7 +410,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>tsd, кг/с</t>
+          <t>Cуммарный сток наносов, кг/с</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>85.3</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.293</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.316</t>
+          <t>0.026</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.243</t>
+          <t>0.027</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>8533</t>
+          <t>104</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>25.5</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.044</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.091</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8210</t>
+          <t>70.3</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.102</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>0.316</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.817</t>
+          <t>0.091</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.222</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.176</t>
+          <t>0.024</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.733</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.106</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">

--- a/out/bed_susp_2007_2023_stat2.xlsx
+++ b/out/bed_susp_2007_2023_stat2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,62 +360,77 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Год</t>
+          <t>year1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Т воздб оС</t>
+          <t>t2_c</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Осадки, мм</t>
+          <t>rain_mm</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Q А, м3/с</t>
+          <t>q</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SSC А, мг/л</t>
+          <t>ssc</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>R А, кг/с</t>
+          <t>ssd</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>G А, кг/с</t>
+          <t>bsd</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>D50 А, мм</t>
+          <t>D50_A</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>G Б, кг/с</t>
+          <t>bsd_B</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>D50 Б, мм</t>
+          <t>D50_B</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Cуммарный сток наносов, кг/с</t>
+          <t>g</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Статистика</t>
+          <t>tsd</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>dolya</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>sediment_budget</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>statistic</t>
         </is>
       </c>
     </row>
@@ -472,10 +487,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.293</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
+        <is>
+          <t>0.187</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.253</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.234</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>Cр.знач</t>
         </is>
@@ -534,10 +564,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.098</t>
+          <t>0.207</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.210</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.109</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>Cр.знач</t>
         </is>
@@ -596,10 +641,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.122</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
+        <is>
+          <t>0.087</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.216</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>Cр.знач</t>
         </is>
@@ -658,10 +718,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.087</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.185</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.029</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>Cр.знач</t>
         </is>
@@ -685,7 +760,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -695,7 +770,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.646</t>
+          <t>0.605</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -720,10 +795,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
+        <is>
+          <t>0.058</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.488</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>Cр.знач</t>
         </is>
@@ -782,10 +872,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>29.3</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
+        <is>
+          <t>18.7</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>23.4</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>Сумма</t>
         </is>
@@ -844,10 +949,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>21.1</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
+        <is>
+          <t>13.3</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>Сумма</t>
         </is>
@@ -906,10 +1026,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>23.4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>Сумма</t>
         </is>
@@ -968,10 +1103,25 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>18.1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>Сумма</t>
         </is>
@@ -995,7 +1145,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>127</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1005,7 +1155,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>67.8</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1030,10 +1180,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>Сумма</t>
         </is>
@@ -1092,10 +1257,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>0.014</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>0.000</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
@@ -1154,10 +1334,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
+        <is>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
@@ -1216,10 +1411,25 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
+        <is>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
@@ -1278,10 +1488,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>0.000</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
@@ -1305,7 +1530,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.901</t>
+          <t>0.584</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1315,7 +1540,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1340,10 +1565,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>0.019</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>0.000</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
@@ -1402,10 +1642,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>70.3</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.423</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
@@ -1464,10 +1719,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.694</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.419</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0.791</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
@@ -1526,10 +1796,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.102</t>
+          <t>0.308</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.342</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
@@ -1588,10 +1873,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.316</t>
+          <t>0.564</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
+        <is>
+          <t>0.393</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.417</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0.506</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
@@ -1650,10 +1950,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.091</t>
+          <t>0.276</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.854</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0.104</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
@@ -1712,10 +2027,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>0.248</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
+        <is>
+          <t>0.597</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0.491</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>Ср.кв.откл.</t>
         </is>
@@ -1774,10 +2104,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.222</t>
+          <t>0.171</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
+        <is>
+          <t>0.261</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0.104</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0.154</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>Ср.кв.откл.</t>
         </is>
@@ -1836,10 +2181,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
+          <t>0.069</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.262</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>0.024</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Ср.кв.откл.</t>
         </is>
@@ -1898,10 +2258,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.104</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.086</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0.068</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>Ср.кв.откл.</t>
         </is>
@@ -1925,7 +2300,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.213</t>
+          <t>0.302</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1935,7 +2310,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1960,10 +2335,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.018</t>
+          <t>0.056</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
+        <is>
+          <t>0.199</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0.243</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>Ср.кв.откл.</t>
         </is>

--- a/out/bed_susp_2007_2023_stat2.xlsx
+++ b/out/bed_susp_2007_2023_stat2.xlsx
@@ -487,22 +487,22 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.293</t>
+          <t>0.024</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.187</t>
+          <t>0.164</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.253</t>
+          <t>0.029</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.234</t>
+          <t>0.216</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -559,27 +559,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.207</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.130</t>
+          <t>0.114</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.210</t>
+          <t>0.021</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.109</t>
+          <t>0.110</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.395</t>
+          <t>0.335</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.122</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.087</t>
+          <t>0.077</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.216</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -718,22 +718,22 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.087</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.185</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -795,17 +795,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.072</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.058</t>
+          <t>0.053</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.488</t>
+          <t>0.079</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -872,22 +872,22 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>29.3</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>18.7</t>
+          <t>16.4</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>25.3</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>21.6</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>66.6</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -944,27 +944,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16.8</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21.1</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21.4</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1006,12 +1006,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>0.752</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1103,22 +1103,22 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>0.607</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18.1</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1180,22 +1180,22 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>0.456</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1257,17 +1257,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.008</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.562</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1329,22 +1329,22 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.494</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1642,22 +1642,22 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>0.049</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.423</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1714,27 +1714,27 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.694</t>
+          <t>0.046</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.419</t>
+          <t>0.073</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.791</t>
+          <t>0.691</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1796,22 +1796,22 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.308</t>
+          <t>0.027</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.342</t>
+          <t>0.033</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.148</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1873,22 +1873,22 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.564</t>
+          <t>0.046</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.393</t>
+          <t>0.371</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.417</t>
+          <t>0.076</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.506</t>
+          <t>0.464</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1950,22 +1950,22 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.276</t>
+          <t>0.021</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.854</t>
+          <t>0.233</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>0.121</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2027,22 +2027,22 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.248</t>
+          <t>0.019</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.597</t>
+          <t>0.582</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.020</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0.491</t>
+          <t>0.389</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2099,27 +2099,27 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.171</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.261</t>
+          <t>0.254</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.154</t>
+          <t>0.143</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.573</t>
+          <t>0.463</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2181,22 +2181,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.069</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.262</t>
+          <t>0.261</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2258,17 +2258,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.086</t>
+          <t>0.013</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2335,22 +2335,22 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.199</t>
+          <t>0.198</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.243</t>
+          <t>0.058</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.021</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
